--- a/data_output.xlsx
+++ b/data_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20920" windowHeight="11330"/>
+    <workbookView windowWidth="11520" windowHeight="12215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>编号</t>
   </si>
@@ -25,13 +25,19 @@
     <t>长度</t>
   </si>
   <si>
-    <t>7406102-B1-15002</t>
+    <t>7406104-B1-10010-5</t>
   </si>
   <si>
-    <t>7406102-B1-15003</t>
+    <t>7406104-B1-10011-2</t>
   </si>
   <si>
-    <t>7406102-B1-15004</t>
+    <t>7406104-B1-10012-2</t>
+  </si>
+  <si>
+    <t>7406104-B1-10013-2</t>
+  </si>
+  <si>
+    <t>7406104-B1-10014-2</t>
   </si>
 </sst>
 </file>
@@ -39,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -53,10 +59,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -68,50 +119,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,45 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -172,32 +157,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,31 +237,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,67 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,66 +393,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -406,20 +413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7E7E7E"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7E7E7E"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,11 +443,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +467,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,8 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +525,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +533,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,16 +545,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,140 +563,123 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,18 +999,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.8181818181818" customWidth="1"/>
+    <col min="1" max="1" width="22.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,69 +1025,60 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
+        <v>160</v>
+      </c>
+      <c r="C2">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>500</v>
+      <c r="B3" s="1">
+        <v>160</v>
+      </c>
+      <c r="C3">
+        <v>6134</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1500</v>
+      <c r="B4" s="1">
+        <v>160</v>
+      </c>
+      <c r="C4">
+        <v>6134</v>
       </c>
     </row>
-    <row r="5" ht="14.75" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>6134</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>6134</v>
+      </c>
     </row>
-    <row r="7" ht="14.75" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" ht="14.75" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" ht="14.75" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_output.xlsx
+++ b/data_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="12215"/>
+    <workbookView windowWidth="30048" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>编号</t>
   </si>
@@ -25,19 +25,79 @@
     <t>长度</t>
   </si>
   <si>
-    <t>7406104-B1-10010-5</t>
-  </si>
-  <si>
-    <t>7406104-B1-10011-2</t>
-  </si>
-  <si>
-    <t>7406104-B1-10012-2</t>
-  </si>
-  <si>
-    <t>7406104-B1-10013-2</t>
-  </si>
-  <si>
-    <t>7406104-B1-10014-2</t>
+    <t>5407055-B1-02002</t>
+  </si>
+  <si>
+    <t>5407055-B1-02003</t>
+  </si>
+  <si>
+    <t>5407055-B1-02004</t>
+  </si>
+  <si>
+    <t>5407055-B1-02005</t>
+  </si>
+  <si>
+    <t>5407055-B1-02006</t>
+  </si>
+  <si>
+    <t>5407055-B1-02007</t>
+  </si>
+  <si>
+    <t>5407055-B1-02008</t>
+  </si>
+  <si>
+    <t>5407055-B1-02009</t>
+  </si>
+  <si>
+    <t>5407055-B1-02010</t>
+  </si>
+  <si>
+    <t>5407055-B1-02011</t>
+  </si>
+  <si>
+    <t>5407055-B1-02012</t>
+  </si>
+  <si>
+    <t>5407055-B1-02013</t>
+  </si>
+  <si>
+    <t>5407055-B1-02014</t>
+  </si>
+  <si>
+    <t>5407055-B1-02015</t>
+  </si>
+  <si>
+    <t>5407055-B1-02016</t>
+  </si>
+  <si>
+    <t>5407055-B1-02017</t>
+  </si>
+  <si>
+    <t>5407055-B1-02018</t>
+  </si>
+  <si>
+    <t>5407055-B1-02019</t>
+  </si>
+  <si>
+    <t>5407055-B1-02020</t>
+  </si>
+  <si>
+    <t>5407055-B1-02021</t>
+  </si>
+  <si>
+    <t>5407055-B1-02022</t>
+  </si>
+  <si>
+    <t>5407055-B1-02023</t>
+  </si>
+  <si>
+    <t>5407055-B1-02025</t>
+  </si>
+  <si>
+    <t>5407055-B1-02027</t>
+  </si>
+  <si>
+    <t>5407055-B1-02029</t>
   </si>
 </sst>
 </file>
@@ -675,11 +735,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -999,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1025,60 +1087,313 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>160</v>
-      </c>
-      <c r="C2">
-        <v>6134</v>
+      <c r="B2" s="2">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6509.7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>160</v>
-      </c>
-      <c r="C3">
-        <v>6134</v>
+      <c r="B3" s="2">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6442.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>160</v>
-      </c>
-      <c r="C4">
-        <v>6134</v>
+      <c r="B4" s="2">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9755.7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>160</v>
-      </c>
-      <c r="C5">
-        <v>6134</v>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9688.7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>160</v>
-      </c>
-      <c r="C6">
-        <v>6134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B6" s="2">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3">
+        <v>12861.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12794.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20832.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20765.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <v>20398.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20331.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18164.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>18097.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3">
+        <v>14650.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3">
+        <v>14583.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6509.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6442.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>9755.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9688.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12281.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12214.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>20817.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20750.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
+        <v>20316.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3">
+        <v>18082.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3">
+        <v>14568.3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
